--- a/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="需求评审意见统计和修改记录表" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>需求评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,49 @@
   </si>
   <si>
     <t>张3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E组需求规格说明书V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLite术语介绍序号未填写</t>
+  </si>
+  <si>
+    <t>接受建议，已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文中较多重要术语未在定义中指出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架及组件描述似乎不应该做为需求分析的一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F组需求规格说明书V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F组需求规格说明书V1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +325,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -314,11 +363,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -525,26 +593,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A2:D13"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="11"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="10"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="9"/>
-    <tableColumn id="4" name="修改情况" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:E13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:E13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="序号" dataDxfId="10"/>
+    <tableColumn id="2" name="需求分析评审对象" dataDxfId="9"/>
+    <tableColumn id="3" name="评审意见" dataDxfId="8"/>
+    <tableColumn id="4" name="修改情况" dataDxfId="7"/>
+    <tableColumn id="5" name="提出人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="4"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="3"/>
-    <tableColumn id="4" name="报告人" dataDxfId="2"/>
+    <tableColumn id="1" name="序号" dataDxfId="4"/>
+    <tableColumn id="2" name="需求分析评审对象" dataDxfId="3"/>
+    <tableColumn id="3" name="评审意见" dataDxfId="2"/>
+    <tableColumn id="4" name="报告人" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -827,7 +896,7 @@
     <col min="4" max="4" width="21.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -835,7 +904,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,8 +917,11 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -862,6 +934,81 @@
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -881,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>需求评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,13 +267,122 @@
   <si>
     <t>F组需求规格说明书V1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E组需求规格说明书V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录中“3.需求分析”页码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟秋宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“用户首先向系统发出对话添加命令”。用例图所示对话添加的actor应该是维护人员不是用户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牟秋宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“用户首先向系统发出对话删除命令”。用例图所示对话删除的actor应该是维护人员不是用户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受建议，已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary actor错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F组需求规格说明书V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者前后不对应。3.3.1用户角色一节中提到的actor为“使用者”“管理者”而图3中变为了“管理员”、“普通用户”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例图中的actor与RUCM中的actor名称不对应。一个是“用户”一个是“使用者”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面底端没有页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H组需求规格说明书V1.2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“对于Javascript而言”，大小写应与前面统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I组需求规格说明书V2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“ 表 1 专业术语表”表与1中间多打了一个空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E组需求规格说明书V1.0</t>
+  </si>
+  <si>
+    <t>解释了三种需求中的两种，没解释‘‘非功能需求’’</t>
+  </si>
+  <si>
+    <t>接受建议，已修改</t>
+  </si>
+  <si>
+    <t>张祥国</t>
+  </si>
+  <si>
+    <t>F组需求规格说明书V1.3</t>
+  </si>
+  <si>
+    <t>撰写校对表格多余，与下面文档修改记录重复</t>
+  </si>
+  <si>
+    <t>H组需求规格说明书V1.2.9</t>
+  </si>
+  <si>
+    <t>“提供了”不适合作为需求的措词</t>
+  </si>
+  <si>
+    <t>“爬虫程序开发者”与前面的参与者类别不对应</t>
+  </si>
+  <si>
+    <t>“以及节点名称作为节点的标识”与前文衔接不通顺</t>
+  </si>
+  <si>
+    <t>“列出可用爬虫”在RUCM中是英文，文字中是中文</t>
+  </si>
+  <si>
+    <t>I组需求规格说明书V2.2.2</t>
+  </si>
+  <si>
+    <t>对于各个功能缺少简单的文字描述</t>
+  </si>
+  <si>
+    <t>术语列举较少，Node-RED，npm等术语未列举说明</t>
+  </si>
+  <si>
+    <t>时间为3月25日</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +440,26 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF1F2329"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,11 +489,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,27 +731,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:E13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A2:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:E39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:E39"/>
   <tableColumns count="5">
     <tableColumn id="1" name="序号" dataDxfId="10"/>
     <tableColumn id="2" name="需求分析评审对象" dataDxfId="9"/>
     <tableColumn id="3" name="评审意见" dataDxfId="8"/>
     <tableColumn id="4" name="修改情况" dataDxfId="7"/>
-    <tableColumn id="5" name="提出人" dataDxfId="0"/>
+    <tableColumn id="5" name="提出人" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="4"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="3"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="2"/>
-    <tableColumn id="4" name="报告人" dataDxfId="1"/>
+    <tableColumn id="1" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" name="需求分析评审对象" dataDxfId="2"/>
+    <tableColumn id="3" name="评审意见" dataDxfId="1"/>
+    <tableColumn id="4" name="报告人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -882,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -897,12 +1035,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -917,7 +1055,7 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -989,26 +1127,416 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1040,12 +1568,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC97C4A-A257-44F2-859C-5B23CBA33ED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求评审意见统计和修改记录表" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,12 +109,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>需求评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,14 +267,311 @@
   </si>
   <si>
     <t>F组需求规格说明书V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例图中有的用例的include带箭头有的没有，未达到完全统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若干个用例与登录用例是拓展关系略显不妥，登录就是个将账号登录的动作，不应该与登录之后的动作形成拓展关系</t>
+  </si>
+  <si>
+    <t>管理员的管理用户用例不够具体，可以增加一些具体的用例，比如“修改用户名字”等</t>
+  </si>
+  <si>
+    <t>RUCM中Postcondition C不用大写</t>
+  </si>
+  <si>
+    <t>用户“修改作品”的用例，根据RUCM的描述是注册用户可以给作品添加标签然后发布作品进行分享，并没有对作品本身进行修改。所以用例名称改为“发布作品”更为合适</t>
+  </si>
+  <si>
+    <r>
+      <t>Secondary Actors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未注明浏览器，和其他表不一致。显然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是在网页上进行的操作</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alternative Flow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要有对应的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VALIDATES THAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句，反之亦然</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SAF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RFS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RFS4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，是否缺少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Abort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语句？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RFS4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>step1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，表述有问题，建议改为“发送的数据不满足要求”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>表格题注用例名称和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RUCM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>描述的用例名称不一致</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为用例的实现方法，并不是用例的一部分，且若添加该用例，为何其他涉及到数据库的用例不添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;include&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>箭头呢？而且下文再也没有提及该用例</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Precondition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有点迷惑。系统的第一个管理员是怎么来的？难道是直接在数据库里添加吗？</t>
+    </r>
+  </si>
+  <si>
+    <t>潘安佶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +629,39 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +671,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -348,11 +679,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -360,10 +719,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,27 +966,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:E13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A2:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:E17" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="10"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="9"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="8"/>
-    <tableColumn id="4" name="修改情况" dataDxfId="7"/>
-    <tableColumn id="5" name="提出人" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="需求分析评审对象" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="评审意见" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="修改情况" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="提出人" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A2:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="4"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="3"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="2"/>
-    <tableColumn id="4" name="报告人" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="需求分析评审对象" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="评审意见" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="报告人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -881,11 +1254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -897,12 +1270,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -917,7 +1290,7 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -989,26 +1362,192 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="59.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="112.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1025,7 +1564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1040,12 +1579,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670E4061-10E2-4A2D-A6F7-489EC4A6D783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求评审意见统计和修改记录表" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,12 +109,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>需求评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,12 +377,48 @@
   </si>
   <si>
     <t>时间为3月25日</t>
+  </si>
+  <si>
+    <t>用例图中有的用例的include带箭头有的没有，未达到完全统一</t>
+  </si>
+  <si>
+    <t>潘安佶</t>
+  </si>
+  <si>
+    <t>若干个用例与登录用例是拓展关系略显不妥，登录就是个将账号登录的动作，不应该与登录之后的动作形成拓展关系</t>
+  </si>
+  <si>
+    <t>管理员的管理用户用例不够具体，可以增加一些具体的用例，比如“修改用户名字”等</t>
+  </si>
+  <si>
+    <t>RUCM中Postcondition C不用大写</t>
+  </si>
+  <si>
+    <t>用户“修改作品”的用例，根据RUCM的描述是注册用户可以给作品添加标签然后发布作品进行分享，并没有对作品本身进行修改。所以用例名称改为“发布作品”更为合适</t>
+  </si>
+  <si>
+    <t>Secondary Actors未注明浏览器，和其他表不一致。显然step是在网页上进行的操作</t>
+  </si>
+  <si>
+    <t>Specific Alternative Flow需要有对应的VALIDATES THAT语句，反之亦然</t>
+  </si>
+  <si>
+    <t>SAF中的RFS2和RFS4，是否缺少Abort语句？RFS4中的step1，表述有问题，建议改为“发送的数据不满足要求”</t>
+  </si>
+  <si>
+    <t>表格题注用例名称和RUCM描述的用例名称不一致</t>
+  </si>
+  <si>
+    <t>数据库CRUD为用例的实现方法，并不是用例的一部分，且若添加该用例，为何其他涉及到数据库的用例不添加&lt;include&gt;箭头呢？而且下文再也没有提及该用例</t>
+  </si>
+  <si>
+    <t>Precondition有点迷惑。系统的第一个管理员是怎么来的？难道是直接在数据库里添加吗？</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,9 +529,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -503,6 +537,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,27 +768,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:E39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A2:E39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:E39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:E39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="序号" dataDxfId="10"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="9"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="8"/>
-    <tableColumn id="4" name="修改情况" dataDxfId="7"/>
-    <tableColumn id="5" name="提出人" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="需求分析评审对象" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="评审意见" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="修改情况" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="提出人" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="序号" dataDxfId="3"/>
-    <tableColumn id="2" name="需求分析评审对象" dataDxfId="2"/>
-    <tableColumn id="3" name="评审意见" dataDxfId="1"/>
-    <tableColumn id="4" name="报告人" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="需求分析评审对象" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="评审意见" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="报告人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1035,12 +1072,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1287,7 +1324,7 @@
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1321,7 +1358,7 @@
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1338,7 +1375,7 @@
       <c r="B19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1355,7 +1392,7 @@
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -1372,7 +1409,7 @@
       <c r="B21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1389,7 +1426,7 @@
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1406,7 +1443,7 @@
       <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1423,7 +1460,7 @@
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -1433,82 +1470,192 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1553,7 +1700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1568,12 +1715,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">

--- a/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670E4061-10E2-4A2D-A6F7-489EC4A6D783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="需求评审意见统计和修改记录表" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,12 +108,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
   <si>
     <t>需求评审意见统计和修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,13 +412,357 @@
   </si>
   <si>
     <t>Precondition有点迷惑。系统的第一个管理员是怎么来的？难道是直接在数据库里添加吗？</t>
+  </si>
+  <si>
+    <t>F组需求规格说明书V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">　用例图较小，不够清晰（好像是visio直接复制的，挺清晰，就是有点小）	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受建议，已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马广洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F组需求规格说明书V1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>　目录的所有标题字体格式相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不接受，缩进对标题的区分度已经足够，而且更加规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RUCM与文字说明之间有点混乱	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受建议，已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H组需求规格说明书V1.2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责处理Spider中获取到的Item，并进行进行后期处理（详细分析、过滤、存储等）中两个”进行”重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马广洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理发送到Spider的响应和从Spider生成的请求和项目过程中的钩子框架，用于在其中插入自定义功能”较为赘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I组需求规格说明书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>V2.2.2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超文本标记语言（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HyperText Markup Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Markup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Mark-up</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I组需求规格说明书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>V2.2.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为工具添加具有更多功能的节点的过程。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>较为赘述，去掉第一个的，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受建议，已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马广洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I组需求规格说明书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>V2.2.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过手动触发流程中的输入节点进而触发流程的执行的过程。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较为赘述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I组需求规格说明书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>V2.2.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>为工具添加具有更多功能的节点的过程。。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较为赘述</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +840,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -518,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,6 +925,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -768,27 +1155,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A2:E39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A2:E39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:E55" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A2:E55"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="序号" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="需求分析评审对象" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="评审意见" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="修改情况" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="提出人" dataDxfId="6"/>
+    <tableColumn id="1" name="序号" dataDxfId="10"/>
+    <tableColumn id="2" name="需求分析评审对象" dataDxfId="9"/>
+    <tableColumn id="3" name="评审意见" dataDxfId="8"/>
+    <tableColumn id="4" name="修改情况" dataDxfId="7"/>
+    <tableColumn id="5" name="提出人" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A2:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A2:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="序号" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="需求分析评审对象" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="评审意见" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="报告人" dataDxfId="0"/>
+    <tableColumn id="1" name="序号" dataDxfId="3"/>
+    <tableColumn id="2" name="需求分析评审对象" dataDxfId="2"/>
+    <tableColumn id="3" name="评审意见" dataDxfId="1"/>
+    <tableColumn id="4" name="报告人" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1056,11 +1443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B36" sqref="B35:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1657,33 +2044,235 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+    <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1700,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验2 软件需求评审工作统计.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="需求评审意见统计和修改记录表" sheetId="1" r:id="rId1"/>
-    <sheet name="互评需求评审意见统计表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -95,62 +94,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-对其他组需求规格说明书评审的内容所在章节，定位。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-对需求规格说明书的评审意见。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
   <si>
     <t>需求评审意见统计和修改记录表</t>
   </si>
@@ -168,12 +113,6 @@
   </si>
   <si>
     <t>提出人</t>
-  </si>
-  <si>
-    <t>文档概述的顺序和后面的目录顺序不一致</t>
-  </si>
-  <si>
-    <t>张3</t>
   </si>
   <si>
     <t>E组需求规格说明书V1.0</t>
@@ -600,23 +539,13 @@
   </si>
   <si>
     <t>大小写统一，比如Markdown，Linux，文中有的地方写为markdown,linux</t>
-  </si>
-  <si>
-    <t>对其他组需求评审意见统计表</t>
-  </si>
-  <si>
-    <t>报告人</t>
-  </si>
-  <si>
-    <t>需求规格说明书V1.3
-2.3节</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,12 +563,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -732,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -741,7 +664,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -750,12 +673,9 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -787,19 +707,6 @@
     <tableColumn id="3" name="评审意见"/>
     <tableColumn id="4" name="修改情况"/>
     <tableColumn id="5" name="提出人"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D24" totalsRowShown="0">
-  <autoFilter ref="A2:D24"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="序号"/>
-    <tableColumn id="2" name="需求分析评审对象"/>
-    <tableColumn id="3" name="评审意见"/>
-    <tableColumn id="4" name="报告人"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1078,12 +985,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1098,7 +1005,7 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1107,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -1124,16 +1031,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -1141,16 +1048,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -1158,16 +1065,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.25">
@@ -1175,16 +1082,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.25">
@@ -1192,16 +1099,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -1209,16 +1116,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
@@ -1226,16 +1133,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
@@ -1243,16 +1150,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
@@ -1260,16 +1167,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -1277,16 +1184,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
@@ -1294,653 +1201,653 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>28</v>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>28</v>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="3" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="B39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="129.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="57" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="C49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>47</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
@@ -1948,68 +1855,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="19.77734375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>